--- a/Summary/HarvestAssessment/data/2020_BirchBayHarvestReport.xlsx
+++ b/Summary/HarvestAssessment/data/2020_BirchBayHarvestReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">BIDN</t>
   </si>
@@ -71,6 +71,9 @@
     <t xml:space="preserve">OysterEstimate</t>
   </si>
   <si>
+    <t xml:space="preserve">200060</t>
+  </si>
+  <si>
     <t xml:space="preserve">Birch Bay SP</t>
   </si>
   <si>
@@ -83,7 +86,16 @@
     <t xml:space="preserve">External harvest</t>
   </si>
   <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
     <t xml:space="preserve">20A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5086</t>
   </si>
 </sst>
 </file>
@@ -496,62 +508,62 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>200060</v>
+      <c r="A2" t="s">
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>5086</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5086</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
